--- a/journal.xlsx
+++ b/journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a525b8895717ea45/Documents/University/Διπλωματική/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a525b8895717ea45/Documents/University/ANC-with-NN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{56E94A9C-4AD6-4643-ACF6-2E1233E7601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5187411-1605-44EF-B01D-72DFB105CEE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2EFF7-04ED-4551-80A2-131D056F3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1968" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Οκτώβριος 2024</t>
   </si>
@@ -97,6 +97,39 @@
   </si>
   <si>
     <t>Re-write whole code (fix implementation errors and misconceptions) - FxLMS</t>
+  </si>
+  <si>
+    <t>Different noise colors</t>
+  </si>
+  <si>
+    <t>Μάρτιος 2025</t>
+  </si>
+  <si>
+    <t>Debugging (code re-writing, smashing head on the wall)</t>
+  </si>
+  <si>
+    <t>Organize code into multiple files, folders, functions, classes</t>
+  </si>
+  <si>
+    <t>Ποιο είναι το ιδανικό kernel size?</t>
+  </si>
+  <si>
+    <t>Ορίσματα στα convolutions (πχ mode)? Scaling? Δεν ξέρω αν τα αποτελέσματα είναι αναμενόμενα (φυσιολογικά) ή όχι</t>
+  </si>
+  <si>
+    <t>Threads για κάθε λειτουργία που θέλω να τρέχει παράλληλα, άπειρα bugs</t>
+  </si>
+  <si>
+    <t>Thread τρέχει παράλληλα</t>
+  </si>
+  <si>
+    <t>Πολλές πηγές με διαφορετικές υλοποιήσεις σε κώδικα - τελικά τι είναι σωστό?</t>
+  </si>
+  <si>
+    <t>Τα αποτελέσματα είναι αναμενόμενα-σωστά?</t>
+  </si>
+  <si>
+    <t>Δυσκολία στο να φτάσω κοντά στις βέλτιστες τιμές των mu, L γιατί πολύ εύκολα με μεγάλες τιμές το σύστημα οδηγείται σε αστάθεια ενώ με μικρές τιμές δεν συγκλίνει τέπο. Σε κάποιες περιπτώσεις ο θόρυβος αυξάνεται, ή η ένταση ξεκινάει από πολύ χαμηλή και αυξάνεται ή παραμένει πολύ χαμηλή</t>
   </si>
 </sst>
 </file>
@@ -158,10 +191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,11 +578,13 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -561,7 +592,9 @@
       <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -577,7 +610,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -585,24 +618,29 @@
       <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -621,31 +659,49 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>

--- a/journal.xlsx
+++ b/journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a525b8895717ea45/Documents/University/ANC-with-NN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2EFF7-04ED-4551-80A2-131D056F3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{91A2EFF7-04ED-4551-80A2-131D056F3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FDBF7AE-AC70-40C7-BB6C-F1753DF4DAA5}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1968" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Οκτώβριος 2024</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Δυσκολία στο να φτάσω κοντά στις βέλτιστες τιμές των mu, L γιατί πολύ εύκολα με μεγάλες τιμές το σύστημα οδηγείται σε αστάθεια ενώ με μικρές τιμές δεν συγκλίνει τέπο. Σε κάποιες περιπτώσεις ο θόρυβος αυξάνεται, ή η ένταση ξεκινάει από πολύ χαμηλή και αυξάνεται ή παραμένει πολύ χαμηλή</t>
+  </si>
+  <si>
+    <t>Implementation fix (secondary path, block diagram, new comments from supervisor)</t>
+  </si>
+  <si>
+    <t>Plot (visual) improvements</t>
   </si>
 </sst>
 </file>
@@ -459,18 +465,18 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -488,7 +494,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +512,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,7 +530,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -538,7 +544,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -556,7 +562,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -570,7 +576,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -584,7 +590,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -598,7 +604,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -610,7 +616,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -624,7 +630,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -640,7 +646,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -651,7 +657,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -665,7 +671,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -679,7 +685,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -691,7 +697,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -705,23 +711,29 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -729,7 +741,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -737,7 +749,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -745,7 +757,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -753,7 +765,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -761,7 +773,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -769,7 +781,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -777,7 +789,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -785,7 +797,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -793,7 +805,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -801,7 +813,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -809,7 +821,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -817,7 +829,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -825,7 +837,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -833,7 +845,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -841,7 +853,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -849,7 +861,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -857,7 +869,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -865,7 +877,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -873,7 +885,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -881,7 +893,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -889,7 +901,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -897,7 +909,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -905,7 +917,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -913,7 +925,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -921,7 +933,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -929,7 +941,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -937,7 +949,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -945,7 +957,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -953,7 +965,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -961,7 +973,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -969,7 +981,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
